--- a/project GL/クラス説明.xlsx
+++ b/project GL/クラス説明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,330 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド,変数</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThreadBean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの名前を保持するための変数</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドのIDを保持するための変数</t>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrCreateDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドを作った日時を保持するための変数</t>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrCreateUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの作成者の名前を保持するための変数</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスをカウントするための変数</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resBean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの中身を持つリスト型の変数</t>
+    <rPh sb="3" eb="5">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrUpdateDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの更新日時を保持するための変数</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getThrId()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrIdを呼び出すためのメソッド</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setThid(int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thIdに値を入れるためのメソッド</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getThrName()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setThrName(String)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getCreateName()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setCreateName(String)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getCreateUser()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setCreateUser(String)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResBean()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setResBean(ArrayList)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getCreateDate()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setCreateDate(String)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResCount()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setResCount(int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrNameを呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createUserを呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resBeanを呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createDateを呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resCountを呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createNameを呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thrNameに値を入れるためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createNameに値を入れるためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createUserに値を入れるためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resBeanに値を入れるためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createDateに値を入れるためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resCountに値を入れるためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResBean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスのIDを保持するためのメソッド</t>
+    <rPh sb="6" eb="8">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの名前を保持するためのメソッド</t>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +360,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +453,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +661,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project GL/クラス説明.xlsx
+++ b/project GL/クラス説明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>クラス</t>
     <phoneticPr fontId="1"/>
@@ -291,28 +291,390 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レスのIDを保持するためのメソッド</t>
+    <t>resId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスのIDを保持するための変数</t>
     <rPh sb="6" eb="8">
       <t>ホジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>resId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>resName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスの名前を保持するためのメソッド</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resUserName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの送信者の名前を格納する変数</t>
+    <rPh sb="3" eb="6">
+      <t>ソウシンシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resContent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの本文を格納する変数</t>
     <rPh sb="3" eb="5">
-      <t>ナマエ</t>
+      <t>ホンブン</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ホジ</t>
-    </rPh>
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resCreateDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの投稿日時を格納する変数</t>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resDeleteFlag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの削除する判断をする変数（未使用)</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resStamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの投稿時に使用できるスタンプを格納する変数</t>
+    <rPh sb="3" eb="6">
+      <t>トウコウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResId()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resId変数を呼び出すためのメソッド</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setResId(int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resId変数に値を格納するためのメソッド</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResUserName()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resUserName変数を呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResCreateDate()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resCreateDate変数を呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResStamp()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resStamp変数を呼び出すためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setResUserName(String)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resUserName変数に値を格納するためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setResCreateDate(String)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resCreateDate変数に値を格納するためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setResStamp(int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resStamp変数に値を格納するためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBAccesser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getConnection()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read(int,String)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idを元にresを呼び出しArrayList型で返すメソッド</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write(boolean,boolean)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oracleDBAにアクセスするためのメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBAにデータを書き込むメソッド</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainExecute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getThreads()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThreadBeanのインスタンスを呼び出すメソッド</t>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addThreads(ThreadBean)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドを新規追加するためのメソッド</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResExecute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスを追加するためのメソッド</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addRes(ResBean)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getRes()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResBeanのインスタンスを呼び出すメソッド</t>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet(HttpServletRequest,HttpServletResponce)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toppageからの要求を受け取り、DBAからスレッドを呼び出し、jspに送信するメソッド</t>
+  </si>
+  <si>
+    <t>Toppageからの要求を受け取り、DBAからスレッドを呼び出し、jspに送信するメソッド</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doPost(HttpServletRequest,HttpServletResponce)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet(HttpServletRequest,HttpServletResponce)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド一覧画面からの要求を受け取り、レスの画面呼び出し、jspに送信するメソッド</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doPost(HttpServletRequest,HttpServletResponce)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド一覧画面からの要求を受け取り、レスの画面呼び出し、jspに送信するメソッド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -662,17 +1024,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.86328125" customWidth="1"/>
+    <col min="3" max="3" width="42.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -862,10 +1224,10 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -874,6 +1236,205 @@
       </c>
       <c r="D25" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/project GL/クラス説明.xlsx
+++ b/project GL/クラス説明.xlsx
@@ -706,7 +706,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -714,12 +714,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1024,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D48"/>
+  <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:D49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1037,403 +1153,443 @@
     <col min="4" max="4" width="71.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="48" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="8" t="s">
         <v>101</v>
       </c>
     </row>

--- a/project GL/クラス説明.xlsx
+++ b/project GL/クラス説明.xlsx
@@ -59,16 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スレッドのIDを保持するための変数</t>
-    <rPh sb="8" eb="10">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>thrCreateDate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -675,6 +665,16 @@
   </si>
   <si>
     <t>スレッド一覧画面からの要求を受け取り、レスの画面呼び出し、jspに送信するメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スレッドのIDを保持するための変数 </t>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1143,18 +1143,18 @@
   <dimension ref="B1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="42.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1173,10 +1173,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -1185,412 +1185,412 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="7" t="s">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="7" t="s">
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="7" t="s">
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
